--- a/biology/Virologie/Virus_de_la_mosaïque_jaune_du_navet/Virus_de_la_mosaïque_jaune_du_navet.xlsx
+++ b/biology/Virologie/Virus_de_la_mosaïque_jaune_du_navet/Virus_de_la_mosaïque_jaune_du_navet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Virus_de_la_mosa%C3%AFque_jaune_du_navet</t>
+          <t>Virus_de_la_mosaïque_jaune_du_navet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus de la mosaïque jaune du navet (TYMV, Turnip yellow mosaic virus) est un phytovirus isométrique à ARN simple brin à polarité positive (ssRNA) classé dans le genre  Tymovirus (famille des Tymoviridae), dont c'est l'espèce type.
-Sa gamme d'hôtes se limite presque entièrement aux plantes du genre Brassica en Europe occidentale, qui comprend notamment le navet, le colza, le chou, le chou-fleur et le brocoli[1].
+Sa gamme d'hôtes se limite presque entièrement aux plantes du genre Brassica en Europe occidentale, qui comprend notamment le navet, le colza, le chou, le chou-fleur et le brocoli.
 L'infection provoque une mosaïque jaune brillant accompagnée d'un éclaircissement des nervures.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Virus_de_la_mosa%C3%AFque_jaune_du_navet</t>
+          <t>Virus_de_la_mosaïque_jaune_du_navet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Transmission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce virus est transmis par la sève ainsi que par des insectes vecteurs[2].
-Parmi ces derniers, les plus importants appartiennent aux altises des genres Phylotreta et Psylliodes, bien que Phaedon cochleariae (Chrysomelidae) et ses larves sont connus pour contribuer à la diffusion de ce virus. La larve perd sa capacité à transmettre le virus dès qu'elle atteint le stade de pupe, ce qui suggère un processus d'infection mécanique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce virus est transmis par la sève ainsi que par des insectes vecteurs.
+Parmi ces derniers, les plus importants appartiennent aux altises des genres Phylotreta et Psylliodes, bien que Phaedon cochleariae (Chrysomelidae) et ses larves sont connus pour contribuer à la diffusion de ce virus. La larve perd sa capacité à transmettre le virus dès qu'elle atteint le stade de pupe, ce qui suggère un processus d'infection mécanique.
 </t>
         </is>
       </c>
